--- a/resultados/dptos.xlsx
+++ b/resultados/dptos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2848367746-arriendo-pieza-en-providencia-_JM#position=1&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2848367746-arriendo-pieza-en-providencia-_JM#position=1&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -532,12 +532,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2844483782-departamento-en-arriendo-de-1-dorm-en-providencia-_JM#position=2&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2844483782-departamento-en-arriendo-de-1-dorm-en-providencia-_JM#position=2&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -583,12 +583,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-1579317793-departamento-bellavista-de-la-florida-_JM#position=3&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-1579317793-departamento-bellavista-de-la-florida-_JM#position=3&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -634,12 +634,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2843218452-arriendo-pieza-en-las-condes-_JM#position=4&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2843218452-arriendo-pieza-en-las-condes-_JM#position=4&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-1579003813-lindo-y-acogedor-departamento-cerca-de-echenique-_JM#position=5&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-1579003813-lindo-y-acogedor-departamento-cerca-de-echenique-_JM#position=5&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2843286230-av-ossa-a-pasos-de-metro-simon-bolivar-_JM#position=6&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2843286230-av-ossa-a-pasos-de-metro-simon-bolivar-_JM#position=6&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -787,12 +787,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-1572630735-excelente-ubicacion-a-pasos-metro-los-leones-_JM#position=7&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-1572630735-excelente-ubicacion-a-pasos-metro-los-leones-_JM#position=7&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -838,12 +838,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2824944708-arriendo-dpto-interior-independiente-estacionamiento-_JM#position=8&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2824944708-arriendo-dpto-interior-independiente-estacionamiento-_JM#position=8&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2842116844-arriendo-habitacion-metro-manquehue-33270-_JM#position=9&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2842116844-arriendo-habitacion-metro-manquehue-33270-_JM#position=9&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -940,12 +940,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2846648214-arriendo-estudio-av-nueva-providencia-2060-providencia-_JM#position=10&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2846648214-arriendo-estudio-av-nueva-providencia-2060-providencia-_JM#position=10&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2842499804-studio-mono-ambiente-antonio-bellet-metro-pedro-valdivia-_JM#position=11&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2842499804-studio-mono-ambiente-antonio-bellet-metro-pedro-valdivia-_JM#position=11&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2843304974-avenida-nueva-providencia-pedro-de-valdivia-_JM#position=12&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2843304974-avenida-nueva-providencia-pedro-de-valdivia-_JM#position=12&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-1579035873-arriendo-departamentos-nuevos-1d1b-bellavista-providencia-_JM#position=13&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-1579035873-arriendo-departamentos-nuevos-1d1b-bellavista-providencia-_JM#position=13&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-1579187959-departamento-av-providencia-cercano-a-metro-salvador-_JM#position=14&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-1579187959-departamento-av-providencia-cercano-a-metro-salvador-_JM#position=14&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1195,12 +1195,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2835992992-1-dormitorio-1-bano-bodega-nunoa-_JM#position=15&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2835992992-1-dormitorio-1-bano-bodega-nunoa-_JM#position=15&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2840415838-departamento-en-av-providencia-cercano-a-metro-salvador-_JM#position=16&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2840415838-departamento-en-av-providencia-cercano-a-metro-salvador-_JM#position=16&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1297,12 +1297,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2847359936-depto-1d-1b-nunoa-id-w13378-_JM#position=17&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2847359936-depto-1d-1b-nunoa-id-w13378-_JM#position=17&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-1572067253-pieza-en-providencia-cerca-de-metro-los-leones-_JM#position=18&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-1572067253-pieza-en-providencia-cerca-de-metro-los-leones-_JM#position=18&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1399,27 +1399,27 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Arriendo Pieza En Depto A Pasos De Metro El Golf, Las Condes</t>
+          <t>Arriendo Habitación Amoblada Con Baño Privado</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-1572570363-arriendo-pieza-en-depto-a-pasos-de-metro-el-golf-las-condes-_JM#position=19&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-1578438327-arriendo-habitacion-amoblada-con-bano-privado-_JM#position=19&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>60 m² útiles · 1 dormitorio</t>
+          <t>5 m² totales · 1 dormitorio</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Vecinal 90, Las Condes, Chile, Barrio El Golf, Las Condes</t>
+          <t>Cerro La Parva 998, Parque Arauco, Las Condes</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1450,27 +1450,27 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Arriendo Habitación Amoblada Con Baño Privado</t>
+          <t>Se Busca Roommate Habitación En Casa Amoblada</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-1578438327-arriendo-habitacion-amoblada-con-bano-privado-_JM#position=20&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2839752964-se-busca-roommate-habitacion-en-casa-amoblada-_JM#position=20&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1479,16 +1479,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5 m² totales · 1 dormitorio</t>
+          <t>180 m² útiles · 1 dormitorio</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cerro La Parva 998, Parque Arauco, Las Condes</t>
+          <t>Amapolas 1270, Providencia, Región Metropolitana, Chile, Las Lilas, Providencia</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1501,45 +1501,45 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dormitorio Sector Metro Colon, Disponibilidad Inmediata.</t>
+          <t>Depto Interior Incluye Baño Y Cocina Independiente</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2837296122-dormitorio-sector-metro-colon-disponibilidad-inmediata-_JM#position=21&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2840690476-depto-interior-incluye-bano-y-cocina-independiente-_JM#position=21&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>UF</t>
+          <t>$</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>132 m² útiles · 1 dormitorio</t>
+          <t>45 m² útiles · 1 dormitorio</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alcántara 979, Las Condes, Vaticano, Las Condes</t>
+          <t>Lynch Norte 856, Metro Simón Bolivar, La Reina</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1552,27 +1552,27 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Se Busca Roommate Habitación En Casa Amoblada</t>
+          <t>Arriendo Habitación En Providencia</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2839752964-se-busca-roommate-habitacion-en-casa-amoblada-_JM#position=22&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2843293424-arriendo-habitacion-en-providencia-_JM#position=22&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>180 m² útiles · 1 dormitorio</t>
+          <t>3 dormitorios</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Amapolas 1270, Providencia, Región Metropolitana, Chile, Las Lilas, Providencia</t>
+          <t>Bustos 2360, Providencia, Campus Oriente, Providencia</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1603,27 +1603,27 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Depto Interior Incluye Baño Y Cocina Independiente</t>
+          <t>Arriendo Dormitorio En Suite. Ciudad Empresarial</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2840690476-depto-interior-incluye-bano-y-cocina-independiente-_JM#position=23&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-1576258779-arriendo-dormitorio-en-suite-ciudad-empresarial-_JM#position=23&amp;search_layout=map&amp;type=item&amp;tracking_id=b50b630d-aace-4de8-b236-570ea9227888</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1632,16 +1632,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>45 m² útiles · 1 dormitorio</t>
+          <t>20 m² útiles · 1 dormitorio</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lynch Norte 856, Metro Simón Bolivar, La Reina</t>
+          <t>Rinconada El Saltó Sn, Bosques De La Pirámide, Huechuraba</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1654,27 +1654,27 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Arriendo Habitación En Providencia</t>
+          <t>Habitación En Casa Compartida/baño Privado</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2843293424-arriendo-habitacion-en-providencia-_JM#position=24&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2842231292-habitacion-en-casa-compartidabano-privado-_JM#position=1&amp;search_layout=map&amp;type=item&amp;tracking_id=83cdc9e6-ac92-4a29-9c6f-bfab9841d5f1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1687,17 +1687,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3 dormitorios</t>
+          <t>30 m² útiles · 1 dormitorio</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bustos 2360, Providencia, Campus Oriente, Providencia</t>
+          <t>Paula Jaraquemada, La Reina, Chile, Blest Gana, La Reina</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.44989281004803*-33.38426922283824,lon:-70.62558878061164*-70.49255121347296</t>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.464620342562576*-33.448221880457425,lon:-70.58875006050337*-70.5554906687187</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1705,27 +1705,27 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Arriendo Dormitorio En Suite. Ciudad Empresarial</t>
+          <t>Departamento En Arriendo Ñuñoa 1d 1b 1e 1b, Irarrazaval 4200</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-1576258779-arriendo-dormitorio-en-suite-ciudad-empresarial-_JM#position=25&amp;search_layout=map&amp;type=item&amp;tracking_id=65b03be3-9190-4bcb-b396-e3480e75c7c6</t>
+          <t>https://www.portalinmobiliario.com/MLC-1579138703-departamento-en-arriendo-nunoa-1d-1b-1e-1b-irarrazaval-4200-_JM#position=2&amp;search_layout=map&amp;type=item&amp;tracking_id=83cdc9e6-ac92-4a29-9c6f-bfab9841d5f1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1738,17 +1738,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>20 m² útiles · 1 dormitorio</t>
+          <t>35 m² útiles · 1 dormitorio</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rinconada El Saltó Sn, Bosques De La Pirámide, Huechuraba</t>
+          <t>Av. Irarrázaval 4200, Ñuñoa, Parque Juan Xxiii, Ñuñoa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.44989281004803*-33.38426922283824,lon:-70.62558878061164*-70.49255121347296</t>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.464620342562576*-33.448221880457425,lon:-70.58875006050337*-70.5554906687187</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1756,27 +1756,27 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Habitación En Casa Compartida/baño Privado</t>
+          <t>Se Arrienda Departamento En Ñuñoa</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2842231292-habitacion-en-casa-compartidabano-privado-_JM#position=1&amp;search_layout=map&amp;type=item&amp;tracking_id=f55f6c0f-cb46-4f1c-8272-045c8dc42acc</t>
+          <t>https://www.portalinmobiliario.com/MLC-2843210412-se-arrienda-departamento-en-nunoa-_JM#position=3&amp;search_layout=map&amp;type=item&amp;tracking_id=83cdc9e6-ac92-4a29-9c6f-bfab9841d5f1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1785,16 +1785,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>30 m² útiles · 1 dormitorio</t>
+          <t>45 m² útiles · 1 dormitorio</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Paula Jaraquemada, La Reina, Chile, Blest Gana, La Reina</t>
+          <t>Hannover 5570, 7790668 Santiago, Ñuñoa, Región Metropolitana, Chile, Plaza Egaña, Ñuñoa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1807,27 +1807,27 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo Ñuñoa 1d 1b 1e 1b, Irarrazaval 4200</t>
+          <t>Depto. 2 Dormitorios, 1 Baño. Cercano A Arrieta C/ Tobalaba</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-1579138703-departamento-en-arriendo-nunoa-1d-1b-1e-1b-irarrazaval-4200-_JM#position=2&amp;search_layout=map&amp;type=item&amp;tracking_id=f55f6c0f-cb46-4f1c-8272-045c8dc42acc</t>
+          <t>https://www.portalinmobiliario.com/MLC-2843253320-depto-2-dormitorios-1-bano-cercano-a-arrieta-c-tobalaba-_JM#position=4&amp;search_layout=map&amp;type=item&amp;tracking_id=83cdc9e6-ac92-4a29-9c6f-bfab9841d5f1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1836,16 +1836,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>35 m² útiles · 1 dormitorio</t>
+          <t>55 m² útiles · 2 dormitorios</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Av. Irarrázaval 4200, Ñuñoa, Parque Juan Xxiii, Ñuñoa</t>
+          <t>Diego Rojas 600 - 900, Peñalolén, Región Metropolitana, Chile, Ictinos, Peñalolén</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1858,27 +1858,27 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Se Arrienda Departamento En Ñuñoa</t>
+          <t>Duble Almeyda / Exequiel Figueroa Metro Los Orientales</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2843210412-se-arrienda-departamento-en-nunoa-_JM#position=3&amp;search_layout=map&amp;type=item&amp;tracking_id=f55f6c0f-cb46-4f1c-8272-045c8dc42acc</t>
+          <t>https://www.portalinmobiliario.com/MLC-1579219229-duble-almeyda-exequiel-figueroa-metro-los-orientales-_JM#position=5&amp;search_layout=map&amp;type=item&amp;tracking_id=83cdc9e6-ac92-4a29-9c6f-bfab9841d5f1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>45 m² útiles · 1 dormitorio</t>
+          <t>36 m² útiles · 1 dormitorio</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hannover 5570, 7790668 Santiago, Ñuñoa, Región Metropolitana, Chile, Plaza Egaña, Ñuñoa</t>
+          <t>Dublé Almeyda 5400 - 5700, Ñuñoa, Diagonal Oriente, Ñuñoa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1909,27 +1909,27 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Depto. 2 Dormitorios, 1 Baño. Cercano A Arrieta C/ Tobalaba</t>
+          <t>Departamento 1 Dormitorio Amoblado Ñuñoa</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2843253320-depto-2-dormitorios-1-bano-cercano-a-arrieta-c-tobalaba-_JM#position=4&amp;search_layout=map&amp;type=item&amp;tracking_id=f55f6c0f-cb46-4f1c-8272-045c8dc42acc</t>
+          <t>https://www.portalinmobiliario.com/MLC-2843936490-departamento-1-dormitorio-amoblado-nunoa-_JM#position=6&amp;search_layout=map&amp;type=item&amp;tracking_id=83cdc9e6-ac92-4a29-9c6f-bfab9841d5f1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1938,16 +1938,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>55 m² útiles · 2 dormitorios</t>
+          <t>40 m² útiles · 1 dormitorio</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Diego Rojas 600 - 900, Peñalolén, Región Metropolitana, Chile, Ictinos, Peñalolén</t>
+          <t>Duble Almeyda Sn, Diagonal Oriente, Ñuñoa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1960,27 +1960,27 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Duble Almeyda / Exequiel Figueroa Metro Los Orientales</t>
+          <t>Arriendo Cómodo Depto. Interior, Buena Ubicación, Macul.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-1579219229-duble-almeyda-exequiel-figueroa-metro-los-orientales-_JM#position=5&amp;search_layout=map&amp;type=item&amp;tracking_id=f55f6c0f-cb46-4f1c-8272-045c8dc42acc</t>
+          <t>https://www.portalinmobiliario.com/MLC-1577126999-arriendo-comodo-depto-interior-buena-ubicacion-macul-_JM#position=1&amp;search_layout=map&amp;type=item&amp;tracking_id=d7e4f1cf-a559-40b0-9f74-8b040507a2dc</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1989,21 +1989,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>36 m² útiles · 1 dormitorio</t>
+          <t>48 m² útiles · 1 dormitorio</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Dublé Almeyda 5400 - 5700, Ñuñoa, Diagonal Oriente, Ñuñoa</t>
+          <t>José Maza Fernández 4500 - 4800, Macul, Metro Los Presidentes, Macul</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.464620342562576*-33.448221880457425,lon:-70.58875006050337*-70.5554906687187</t>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.48058616976933*-33.464190728099474,lon:-70.58943670601118*-70.55617731422652</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2011,27 +2011,27 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Departamento 1 Dormitorio Amoblado Ñuñoa</t>
+          <t>Departamento En Arriendo 1 Dorm Macul Metro Los Presidentes</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2843936490-departamento-1-dormitorio-amoblado-nunoa-_JM#position=6&amp;search_layout=map&amp;type=item&amp;tracking_id=f55f6c0f-cb46-4f1c-8272-045c8dc42acc</t>
+          <t>https://www.portalinmobiliario.com/MLC-2847395064-departamento-en-arriendo-1-dorm-macul-metro-los-presidentes-_JM#position=2&amp;search_layout=map&amp;type=item&amp;tracking_id=d7e4f1cf-a559-40b0-9f74-8b040507a2dc</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>40 m² útiles · 1 dormitorio</t>
+          <t>45 m² útiles · 1 dormitorio</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Duble Almeyda Sn, Diagonal Oriente, Ñuñoa</t>
+          <t>Metro Los Presidentes, Metro Los Presidentes, Macul</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.464620342562576*-33.448221880457425,lon:-70.58875006050337*-70.5554906687187</t>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.48058616976933*-33.464190728099474,lon:-70.58943670601118*-70.55617731422652</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2062,27 +2062,27 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Arriendo Cómodo Depto. Interior, Buena Ubicación, Macul.</t>
+          <t>Departamento Avenida Rodrigo De Araya Id: 147773</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-1577126999-arriendo-comodo-depto-interior-buena-ubicacion-macul-_JM#position=1&amp;search_layout=map&amp;type=item&amp;tracking_id=c6bb7ab3-8abe-4ae9-8645-a12df7ff97f6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2842249224-departamento-avenida-rodrigo-de-araya-id-147773-_JM#position=3&amp;search_layout=map&amp;type=item&amp;tracking_id=d7e4f1cf-a559-40b0-9f74-8b040507a2dc</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2091,16 +2091,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>48 m² útiles · 1 dormitorio</t>
+          <t>41 m² útiles · 2 dormitorios</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>José Maza Fernández 4500 - 4800, Macul, Metro Los Presidentes, Macul</t>
+          <t>Avenida Rodrigo De Araya, Metro Los Presidentes, Macul</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2113,27 +2113,27 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo 1 Dorm Macul Metro Los Presidentes</t>
+          <t>Nuevo!!! Ramon Cruz 2137, 2 Dorms Con Estac. ,metro Grecia</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2847395064-departamento-en-arriendo-1-dorm-macul-metro-los-presidentes-_JM#position=2&amp;search_layout=map&amp;type=item&amp;tracking_id=c6bb7ab3-8abe-4ae9-8645-a12df7ff97f6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2845484624-nuevo-ramon-cruz-2137-2-dorms-con-estac-metro-grecia-_JM#position=4&amp;search_layout=map&amp;type=item&amp;tracking_id=d7e4f1cf-a559-40b0-9f74-8b040507a2dc</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>45 m² útiles · 1 dormitorio</t>
+          <t>48 m² útiles · 2 dormitorios</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Metro Los Presidentes, Metro Los Presidentes, Macul</t>
+          <t>Ramón Cruz Montt 2137, 7810015 Santiago, Macul, Región Metropolitana, Chile, Metro Los Presidentes, Macul</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2164,27 +2164,27 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Departamento Avenida Rodrigo De Araya Id: 147773</t>
+          <t>Depto Metro Grecia (macul)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2842249224-departamento-avenida-rodrigo-de-araya-id-147773-_JM#position=3&amp;search_layout=map&amp;type=item&amp;tracking_id=c6bb7ab3-8abe-4ae9-8645-a12df7ff97f6</t>
+          <t>https://www.portalinmobiliario.com/MLC-1578246623-depto-metro-grecia-macul-_JM#position=5&amp;search_layout=map&amp;type=item&amp;tracking_id=d7e4f1cf-a559-40b0-9f74-8b040507a2dc</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2193,16 +2193,16 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>450</v>
+        <v>319</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>41 m² útiles · 2 dormitorios</t>
+          <t>50 m² útiles · 2 dormitorios</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Avenida Rodrigo De Araya, Metro Los Presidentes, Macul</t>
+          <t>Sergio Vásquez Guzmán 1709, 7.8099e+06 - 7.8102e+06 Macul, Región Metropolitana, Chile, Metro Los Presidentes, Macul</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2215,27 +2215,27 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nuevo!!! Ramon Cruz 2137, 2 Dorms Con Estac. ,metro Grecia</t>
+          <t>Departamento En Arriendo</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2845484624-nuevo-ramon-cruz-2137-2-dorms-con-estac-metro-grecia-_JM#position=4&amp;search_layout=map&amp;type=item&amp;tracking_id=c6bb7ab3-8abe-4ae9-8645-a12df7ff97f6</t>
+          <t>https://www.portalinmobiliario.com/MLC-1575274639-departamento-en-arriendo-_JM#position=6&amp;search_layout=map&amp;type=item&amp;tracking_id=d7e4f1cf-a559-40b0-9f74-8b040507a2dc</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>48 m² útiles · 2 dormitorios</t>
+          <t>56 m² útiles · 2 dormitorios</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Ramón Cruz Montt 2137, 7810015 Santiago, Macul, Región Metropolitana, Chile, Metro Los Presidentes, Macul</t>
+          <t>Av. Grecia, Peñalolén, Ictinos, Peñalolén</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2266,27 +2266,27 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Depto Metro Grecia (macul)</t>
+          <t>Oportunidad Metro San Miguel 2d/2b</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-1578246623-depto-metro-grecia-macul-_JM#position=5&amp;search_layout=map&amp;type=item&amp;tracking_id=c6bb7ab3-8abe-4ae9-8645-a12df7ff97f6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2839539818-oportunidad-metro-san-miguel-2d2b-_JM#position=1&amp;search_layout=map&amp;type=item&amp;tracking_id=fc90ace5-b95b-4cd5-a5ff-e4ca584bbc22</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2295,21 +2295,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>319</v>
+        <v>420</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>50 m² útiles · 2 dormitorios</t>
+          <t>44 m² útiles · 2 dormitorios</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sergio Vásquez Guzmán 1709, 7.8099e+06 - 7.8102e+06 Macul, Región Metropolitana, Chile, Metro Los Presidentes, Macul</t>
+          <t>Ana Luisa 1171, San Miguel, El Llano, San Miguel</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.48058616976933*-33.464190728099474,lon:-70.58943670601118*-70.55617731422652</t>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.48986677432309*-33.48781773332511,lon:-70.65524582964187*-70.65108840566879</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2317,27 +2317,27 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo</t>
+          <t>Buen Departamento En Metro San Miguel (81183)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-1575274639-departamento-en-arriendo-_JM#position=6&amp;search_layout=map&amp;type=item&amp;tracking_id=c6bb7ab3-8abe-4ae9-8645-a12df7ff97f6</t>
+          <t>https://www.portalinmobiliario.com/MLC-2842995784-buen-departamento-en-metro-san-miguel-81183-_JM#position=2&amp;search_layout=map&amp;type=item&amp;tracking_id=fc90ace5-b95b-4cd5-a5ff-e4ca584bbc22</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2346,21 +2346,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>56 m² útiles · 2 dormitorios</t>
+          <t>44 m² útiles · 2 dormitorios</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Av. Grecia, Peñalolén, Ictinos, Peñalolén</t>
+          <t>Ana Luisa 1200 - 1500, El Llano, San Miguel</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.48058616976933*-33.464190728099474,lon:-70.58943670601118*-70.55617731422652</t>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.48986677432309*-33.48781773332511,lon:-70.65524582964187*-70.65108840566879</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2368,27 +2368,27 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Oportunidad Metro San Miguel 2d/2b</t>
+          <t>Departamento 1 Dormitorios En Domeyko! Santiago</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2839539818-oportunidad-metro-san-miguel-2d2b-_JM#position=1&amp;search_layout=map&amp;type=item&amp;tracking_id=b8efd2ae-c9a8-4bd0-a2bc-1d7d9c4f71d3</t>
+          <t>https://www.portalinmobiliario.com/MLC-2847954156-departamento-1-dormitorios-en-domeyko-santiago-_JM#position=1&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2397,21 +2397,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>420</v>
+        <v>175</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>44 m² útiles · 2 dormitorios</t>
+          <t>36 m² útiles · 1 dormitorio</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ana Luisa 1171, San Miguel, El Llano, San Miguel</t>
+          <t>Domeyko 2010, Santiago, Chile, Ejército - Toesca, Santiago</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.48986677432309*-33.48781773332511,lon:-70.65524582964187*-70.65108840566879</t>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2419,50 +2419,50 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Buen Departamento En Metro San Miguel (81183)</t>
+          <t>Departamento En Arriendo De 1 Dorm. En Santiago</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/MLC-2842995784-buen-departamento-en-metro-san-miguel-81183-_JM#position=2&amp;search_layout=map&amp;type=item&amp;tracking_id=b8efd2ae-c9a8-4bd0-a2bc-1d7d9c4f71d3</t>
+          <t>https://www.portalinmobiliario.com/MLC-1573168495-departamento-en-arriendo-de-1-dorm-en-santiago-_JM#position=49&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>UF</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>44 m² útiles · 2 dormitorios</t>
+          <t>34 m² útiles · 1 dormitorio</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ana Luisa 1200 - 1500, El Llano, San Miguel</t>
+          <t>Metro Toesca, Ejército - Toesca, Santiago</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.48986677432309*-33.48781773332511,lon:-70.65524582964187*-70.65108840566879</t>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2470,12 +2470,4704 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Departamento En Barrio Universitario República</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1556510583-departamento-en-barrio-universitario-republica-_JM#position=3&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>240</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>25 m² útiles</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Domeyko 1800 - 2100, Santiago, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>43</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Edificio Vergara Vista Norponiente Piso 5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1573166545-edificio-vergara-vista-norponiente-piso-5-_JM#position=4&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>255</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>24 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Vergara 583, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>44</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Cómodo Y Práctico Departamento Excelente Ubicación</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1571337459-comodo-y-practico-departamento-excelente-ubicacion-_JM#position=5&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>260</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>25 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>José Miguel Carrera 476, Santiago, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>45</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Club Hípico/toesca Estudio Con Estac. Aa213bb</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1574515387-club-hipicotoesca-estudio-con-estac-aa213bb-_JM#position=6&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>260</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>31 m² útiles</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Club Hípico 475, Santiago, Barrio República, Santiago</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>46</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Metro Toesca / 2 Ambientes / Disp. Inmediata</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1579075495-metro-toesca-2-ambientes-disp-inmediata-_JM#position=7&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>270</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>36 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Av. Almte. Blanco Encalada 1771, Santiago, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>47</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Club Hípico-toesca 1 Dorm, Bod, Oferta Aa409bb</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1564930971-club-hipico-toesca-1-dorm-bod-oferta-aa409bb-_JM#position=8&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>275</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>35 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Club Hípico 475, Santiago, Chile, Barrio República, Santiago</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>48</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Edificio Blanco Encalada Vista Sur Piso 7</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1579062845-edificio-blanco-encalada-vista-sur-piso-7-_JM#position=9&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>275</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>31 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Blanco Encalada 2007, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>49</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Departamento 1 Dormitorio / 1 Baño En Barrio República</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1578708683-departamento-1-dormitorio-1-bano-en-barrio-republica-_JM#position=10&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>280</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>30 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Av. Ejército Libertador 300 - 600, Santiago, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>50</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Metro Toesca</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2820868344-metro-toesca-_JM#position=32&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>300</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>22 m² útiles</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Metro Toesca, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>51</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Departamento En Arriendo De 1 Dorm. Cerca Del Metro Toesca</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2842345286-departamento-en-arriendo-de-1-dorm-cerca-del-metro-toesca-_JM#position=12&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>280</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>30 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Blanco Encalada 1727, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Arriendo Dpto 1d+1b+terraza.metro Toesca</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2843372292-arriendo-dpto-1d1bterrazametro-toesca-_JM#position=13&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>285</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>38 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Claudio Gay 1728, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>53</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Blanco Encalada 2007</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2845067870-blanco-encalada-2007-_JM#position=14&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>285</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>35 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Av. Almte. Blanco Encalada 2007, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Excelente Ubicacion 1d + 1b Pasos Estacion Metro Toesca</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2847891564-excelente-ubicacion-1d-1b-pasos-estacion-metro-toesca-_JM#position=15&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>285</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>35 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Claudio Gay 1728, Santiago, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>55</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Metro Toesca / Estudio / Claudio Gay /amplio Y Comodo</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1579505579-metro-toesca-estudio-claudio-gay-amplio-y-comodo-_JM#position=16&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>290</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>30 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Claudio Gay 1971, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Barrio Residencial, Excelente Ubicación A Pasos Metro Toesca</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1570532119-barrio-residencial-excelente-ubicacion-a-pasos-metro-toesca-_JM#position=19&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>290</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>22 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Avenida Almirante Blanco Encalada 1727, Santiago, Chile, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>57</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Oportunidad!!! Excelente Estado, Metro Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1571793665-oportunidad-excelente-estado-metro-toesca-santiago-_JM#position=20&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>290</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>35 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Avenida Ejercito 650, Santiago, Chile, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Arriendo Departamento, Cerca De La Udp Central, Metro Toesca</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1578817047-arriendo-departamento-cerca-de-la-udp-central-metro-toesca-_JM#position=21&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>290</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>30 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Departamento 36 M2 Al Lado Del Metro Toesca</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1579582219-departamento-36-m2-al-lado-del-metro-toesca-_JM#position=22&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>290</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>36 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>General Las Heras 1630, Parque Almagro, Santiago</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Departamento Estudio Calle Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2815464024-departamento-estudio-calle-toesca-santiago-_JM#position=23&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>290</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>28 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Toesca 1929, Santiago, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>61</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Se Arrienda Lindo Departamento De 1 Dormitorio Y 1 Baño Terr</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2836070666-se-arrienda-lindo-departamento-de-1-dormitorio-y-1-bano-terr-_JM#position=24&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>290</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>30 m² totales · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Blanco Encalada, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>62</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Se Arrienda Departamento $290.000, Con Buena Ubicacion</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2841830662-se-arrienda-departamento-290000-con-buena-ubicacion-_JM#position=25&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>290</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>37 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Av. Ejército Libertador 691, Santiago, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Home Estudios. Cercano A Metro Toesca. Nuevos.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2817564682-home-estudios-cercano-a-metro-toesca-nuevos-_JM#position=27&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>293</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>29 m² útiles</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Calle Ejercito Libertador A Pasos Del Metro Toesca, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Almirante Latorre |metro Toesca| Piso 9| 1d + 1b</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1571368533-almirante-latorre-metro-toesca-piso-9-1d-1b-_JM#position=28&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>300</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>32 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Almirante Latorre |metro Toesca| Piso 9| 1d + 1b, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Edificio Vergara Piso 3</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1578998441-edificio-vergara-piso-3-_JM#position=29&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>300</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Vergara 583, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>66</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Santiago 1 Dormitorio 1 Baño + Bodega</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1579022803-santiago-1-dormitorio-1-bano-bodega-_JM#position=30&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>300</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>38 m² útiles</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Blanco Encalada 1797, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>67</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Excelente Depto Estudio 30 M2 Barrio Republica</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1579660063-excelente-depto-estudio-30-m2-barrio-republica-_JM#position=31&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>300</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>30 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Club Hípico 475, Santiago, Chile, Barrio República, Santiago</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>68</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Arriendo Departamento De 1d-1b En Blanco Encalada. M-toesca</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2837301448-arriendo-departamento-de-1d-1b-en-blanco-encalada-m-toesca-_JM#position=33&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>300</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>40 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Al Frente Del Edificio Ejercito Bicentenario, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>69</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Blanco Encalada; Acogedor - Vista Despejada</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2843052526-blanco-encalada-acogedor-vista-despejada-_JM#position=34&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>300</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>40 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Av. Almte. Blanco Encalada 2007, Santiago, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>70</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Departamento Amplio Y Luminoso</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2845455744-departamento-amplio-y-luminoso-_JM#position=35&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>300</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>35 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Av. Ejército Libertador 557, Santiago, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>71</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Arriendo Depto 1h Toesca</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2846790864-arriendo-depto-1h-toesca-_JM#position=36&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>300</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1 m² totales · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>General De Las Heras 1630, Parque Almagro, Santiago</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>72</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Excelente Departamento 1d 1b Con Bodega</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2849185424-excelente-departamento-1d-1b-con-bodega-_JM#position=37&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>300</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>32 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Club Hipico , 698, Barrio República, Santiago</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>73</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Tipo Estudio. Nuevo. Metro Toesca</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1573142441-tipo-estudio-nuevo-metro-toesca-_JM#position=38&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>UF</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>7</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>27 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Metro Toesca, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>74</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1 Dorm 1 Baño Bodega Metro Toesca</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1579301843-1-dorm-1-bano-bodega-metro-toesca-_JM#position=39&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>310</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>32 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Gral. Las Heras, Santiago, Parque Almagro, Santiago</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>75</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Agradable Departamento En Vergara Esquina Claudio Gay</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2843425788-agradable-departamento-en-vergara-esquina-claudio-gay-_JM#position=40&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>310</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>38 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Vergara 586, Santiago, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>76</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Arriendo Departamento Studio 27,67m2 Santiago Centro</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1579205551-arriendo-departamento-studio-2767m2-santiago-centro-_JM#position=41&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>UF</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>8</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>25 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Arriendo Departamento Studio 27,67m2 Santiago Centro, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>77</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez/ Metro Toesca</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2843321388-manuel-rodriguez-metro-toesca-_JM#position=42&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>315</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>37 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Avenida Manuel Rodríguez Sur 677, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>78</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Metro Toesca Piso 31 Pagas La Mitad Garantía - 2d 2b</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1572102127-metro-toesca-piso-31-pagas-la-mitad-garantia-2d-2b-_JM#position=43&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>319</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>45 m² útiles · 2 dormitorios</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>General Las Heras 1610, Parque Almagro, Santiago</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>79</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Metro Toesca Dpto 2d+2b Gral. Las Heras 1610 P24</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1574434909-metro-toesca-dpto-2d2b-gral-las-heras-1610-p24-_JM#position=44&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>319</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>45 m² útiles · 2 dormitorios</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>General Las Heras 1610, Parque Almagro, Santiago</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>80</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Barrio Universitario 1 Dormitorio Toesca/jose Miguel Carrera</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1576640719-barrio-universitario-1-dormitorio-toescajose-miguel-carrera-_JM#position=45&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>320</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>35 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Toesca 2002, Santiago, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>81</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Departamento A 2 Cuadras Del Metro Toesca</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1577943547-departamento-a-2-cuadras-del-metro-toesca-_JM#position=46&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>320</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>32 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Vergara 500, Santiago, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>82</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Ejército Libertador 634 - Departamento 1d1b, Santiago</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1569369629-ejercito-libertador-634-departamento-1d1b-santiago-_JM#position=47&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>324.09</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>30 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Av. Ejército Libertador 634, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>83</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Departamento Toesca Id: 143379</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2841009500-departamento-toesca-id-143379-_JM#position=48&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>325</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>45 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Toesca, Ejército - Toesca, Santiago</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>84</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Lindo Departamento Metro Toesca, 1d 1b</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2839954972-lindo-departamento-metro-toesca-1d-1b-_JM#position=50&amp;search_layout=map&amp;type=item&amp;tracking_id=ecd3cdaf-0868-4e5e-8573-ae925c0e4ef8</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>330</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>35 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Gral. Las Heras, Santiago, Parque Almagro, Santiago</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000CLP_NoIndex_True_item*location_lat:-33.45708757459393*-33.45298789363697,lon:-70.66527143679895*-70.65695658885278</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>85</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Depto. 1d + 1b En Santiago [id: W1039]</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2846023656-depto-1d-1b-en-santiago-id-w1039-_JM#position=1&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>210</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>35 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Huérfanos 547, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>86</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Dpto A Pasos Metro Santa Lucia 1 Ambiente</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2843528318-dpto-a-pasos-metro-santa-lucia-1-ambiente-_JM#position=2&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>220</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>25 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Enrique Mac Iver 22, Santiago, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>87</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Departamento Máximo Humbser Id: 92334</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2843292808-departamento-maximo-humbser-id-92334-_JM#position=3&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>UF</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>21 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Máximo Humbser, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>88</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Departamento Máximo Humbser Id: 92335</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2848406648-departamento-maximo-humbser-id-92335-_JM#position=4&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>UF</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>6</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>21 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Máximo Humbser, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>89</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Se Arrienda Home Studio En Máximo Humbser 527</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1532449635-se-arrienda-home-studio-en-maximo-humbser-527-_JM#position=5&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>230</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>35 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Máximo Humbser 527, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>90</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Brown Propiedades Arrienda Departamento San Isidro</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1578708851-brown-propiedades-arrienda-departamento-san-isidro-_JM#position=6&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>240</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>40 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Santa Lucía, 8330063 Santiago, Región Metropolitana, Chile, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>91</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Se Arrienda Depto De Un Ambiente A Pasos Metro Santa Lucia.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2791968946-se-arrienda-depto-de-un-ambiente-a-pasos-metro-santa-lucia-_JM#position=7&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>240</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>28 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Enrique Mac Iver 22, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>92</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Pieza Con Baño Independiente, Termo Eléctrico, Plaza Italia</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2848884252-pieza-con-bano-independiente-termo-electrico-plaza-italia-_JM#position=8&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>240</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Av. Vicuña Mackenna 58, Plaza Italia, Providencia</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>93</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Acogedor Departamento De Un Ambiente</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1573320683-acogedor-departamento-de-un-ambiente-_JM#position=9&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>250</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>30 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Enrique Mac Iver, Santiago, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>94</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Metro Bustamante / Carlos Porter / Vicuña Mackenna</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1570188615-metro-bustamante-carlos-porter-vicuna-mackenna-_JM#position=10&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>250</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>20 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Prof. Carlos Porter 34, Santiago, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>95</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Departamento A Pasos Metro Santa Lucia</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2832448486-departamento-a-pasos-metro-santa-lucia-_JM#position=11&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>250</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>25 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>San Francisco 28, Santiago, Bulnes, Santiago</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>96</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Excelente Studio Silencioso Interior Inmejorable Ubicacion</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1578235649-excelente-studio-silencioso-interior-inmejorable-ubicacion-_JM#position=12&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>260</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>32 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Miraflores 455, Santiago, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>97</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Departamento En Arriendo 1 Dorm, 1 Baño En Santiago</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2828347530-departamento-en-arriendo-1-dorm-1-bano-en-santiago-_JM#position=13&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>260</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>38 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Metro Santa Lucia, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>98</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Departamento Con Y Sin Estacionamiento</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2841534124-departamento-con-y-sin-estacionamiento-_JM#position=14&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>260</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>27 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Jofre 70, 0, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>99</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Departamento En Arriendo En Santiago</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1571478371-departamento-en-arriendo-en-santiago-_JM#position=15&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>270</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>35 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Huerfanos Con Santa Lucia, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>100</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Magnifica Vista Cerro Santa Lucia, Arriendo 1d1b</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1574047533-magnifica-vista-cerro-santa-lucia-arriendo-1d1b-_JM#position=16&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>270</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>23 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Huerfanos 574,, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>101</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Se Arrienda Dpto.tipo Estudio San Isidro 45. M. Santa Lucía</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1579218689-se-arrienda-dptotipo-estudio-san-isidro-45-m-santa-lucia-_JM#position=17&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>270</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>25 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>San Isidro 45, Santiago, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>102</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Excelente Ubicación Depto 1 Dorm 1 Baño Centro Stgo</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2829122388-excelente-ubicacion-depto-1-dorm-1-bano-centro-stgo-_JM#position=18&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>270</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>28 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Metro Santa Lucia, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>103</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Rebajado 1er Mes Moneda Con Mac Iver</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2833595002-rebajado-1er-mes-moneda-con-mac-iver-_JM#position=19&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>280</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>36 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Moneda Con Mac Iver, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>104</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Dpto. Tipo Estudio En Huérfanos Con Enrique Mac Iver</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2844302852-dpto-tipo-estudio-en-huerfanos-con-enrique-mac-iver-_JM#position=20&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>280</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>35 m² útiles</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Huérfanos 714, Santiago, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>105</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Arriendo 1d 1b Tenderini</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2848444470-arriendo-1d-1b-tenderini-_JM#position=21&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>280</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>38 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Tenderini, Santiago, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>106</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Dpto. De Un Dormitorio A Pocos Pasos Del Metro Sta Lucia</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1565513939-dpto-de-un-dormitorio-a-pocos-pasos-del-metro-sta-lucia-_JM#position=22&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>280.024</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>35 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>San Isidro 19, Santiago, Chile, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>107</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Departamento Diagonal Paraguay</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1574507813-departamento-diagonal-paraguay-_JM#position=23&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>290</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>45 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Diag. Paraguay 322, Santiago, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>108</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1 Dormitorio Metro Santa Lucia</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1573492917-1-dormitorio-metro-santa-lucia-_JM#position=24&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>290</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>30 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Carmen 110, Santiago, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>109</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Lindo E Iluminado Estudio En Merced</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2838337876-lindo-e-iluminado-estudio-en-merced-_JM#position=25&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>290</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>26 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Merced 717, Santiago, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>110</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Departamento 1 Dormitorio 1 Baño/carmen/santiago Centro</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2846606914-departamento-1-dormitorio-1-banocarmensantiago-centro-_JM#position=26&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>290</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>35 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Carmen 1 - 300, Santiago, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>111</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>A Pasos Alameda B O'higgins, Metros Baquedano Y U. Católica</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2849311212-a-pasos-alameda-b-ohiggins-metros-baquedano-y-u-catolica-_JM#position=27&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>290</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>28 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Ramón Corvalán Melgarejo, Santiago, Barrio San Borja, Santiago</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>112</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Dpto, Impecable P/ Estudiante Studio, 1 Baño Metro A Pasos</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1572196471-dpto-impecable-p-estudiante-studio-1-bano-metro-a-pasos-_JM#position=28&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>295</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>32 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Merced 691, Santiago, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>113</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Arriendo Depto Amoblado Studio - Huérfanos (735)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1577117689-arriendo-depto-amoblado-studio-huerfanos-735-_JM#position=29&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>295</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>35 m² útiles</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Huéfanos 714, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>114</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Arriendo Metro Santa Lucia / Sara Del Campo / Carmen</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1578346957-arriendo-metro-santa-lucia-sara-del-campo-carmen-_JM#position=30&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>295</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>30 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Santa Lucia, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>115</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Edificio Carmen Vista Sur Piso 19</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2844807162-edificio-carmen-vista-sur-piso-19-_JM#position=31&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>295</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>29 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Carmen 110, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>116</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Sara Del Campo 535 - Departamento Studio, Santiago</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2843292204-sara-del-campo-535-departamento-studio-santiago-_JM#position=32&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>295.427</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>29 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Sara Del Campo 535, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>117</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Precioso Dpto 1d, 1b, Cercano A Metro, Servicio Y Comercios.</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1579321949-precioso-dpto-1d-1b-cercano-a-metro-servicio-y-comercios-_JM#position=33&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>300</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>30 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Merced 562, Santiago, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>118</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Depto. 1 Dormitorio 1 Baño . Santiago</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1569876253-depto-1-dormitorio-1-bano-santiago-_JM#position=34&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>300</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>31 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Lira 140, Santiago, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>119</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Departamento Amoblado 1 Dormitorio - Metro Santa Lucia</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1571157169-departamento-amoblado-1-dormitorio-metro-santa-lucia-_JM#position=35&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>300</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>32 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Carmen 110, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>120</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Metro Universidad Catolica O Santa Lucia</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1571465857-metro-universidad-catolica-o-santa-lucia-_JM#position=36&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>300</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>36 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Lira 1 - 300, Santiago, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>121</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Depto 38 M2 En Barrio Bellas Artes</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1574733489-depto-38-m2-en-barrio-bellas-artes-_JM#position=37&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>300</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>38 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>José Miguel De La Barra 438, Santiago, Chile, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>122</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Departamento 1d 1b Metro U Catolica</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1576064137-departamento-1d-1b-metro-u-catolica-_JM#position=38&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>300</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>40 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Portugal Con Diagonal Paraguay, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>123</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Departamento Tipo Estudio En Bellas Artes A Pasos Del Metro.</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1576490539-departamento-tipo-estudio-en-bellas-artes-a-pasos-del-metro-_JM#position=39&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>300</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>25 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Miraflores 300 - 600, Santiago, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>124</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Departamento En Arriendo De 1 Dorm. En Santiago</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1577183003-departamento-en-arriendo-de-1-dorm-en-santiago-_JM#position=40&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>300</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>35 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Agustinas 681, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>125</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Arriendo Depto Estudio En Santiago Centro (81550)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1577302503-arriendo-depto-estudio-en-santiago-centro-81550-_JM#position=41&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>300</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>28 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Carabineros De Chile 600 - 900, Barrio San Borja, Santiago</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>126</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Arriendo Depto 1 D Metro P.bustamante, Jofre 21, $ 300.000</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1578297807-arriendo-depto-1-d-metro-pbustamante-jofre-21-300000-_JM#position=42&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>300</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>34 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Gral. Jofré 21, Santiago, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>127</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Cale Marcoleta 462/ Metro Santa Lucia 50% Dscto Primer Mes</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1579480191-cale-marcoleta-462-metro-santa-lucia-50-dscto-primer-mes-_JM#position=43&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>300</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>30 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Calle Marcoleta 462, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>128</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Dpto. En Huérfanos Con Enrique Mac Iver</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2833889198-dpto-en-huerfanos-con-enrique-mac-iver-_JM#position=44&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>300</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>35 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Huérfanos 714, Santiago, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>129</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Arriendo Dpto. 1d1b Cercano Metro Uc</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2844520858-arriendo-dpto-1d1b-cercano-metro-uc-_JM#position=45&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>300</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>34 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Curico Con Lira, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>130</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Arriendo Departamento Amoblado Studio Ramon Corvalan (5273)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2844876522-arriendo-departamento-amoblado-studio-ramon-corvalan-5273-_JM#position=46&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>300</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>30 m² útiles</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Ramón Corvalán 32, Barrio San Borja, Santiago</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>131</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Se Arrienda Dpto. Mac Iver 120, Esq.moneda</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-2848495400-se-arrienda-dpto-mac-iver-120-esqmoneda-_JM#position=47&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>300</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>40 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Enrique Mac Iver 120, Santiago, Centro Histórico De Santiago, Santiago</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>132</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Departamento En Arriendo De 1 Dorm. Y 1 Baño En Santiago</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1576906849-departamento-en-arriendo-de-1-dorm-y-1-bano-en-santiago-_JM#position=49&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>UF</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>8</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>26 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Cercano A La Salida Sur Del Metro Santa Lucia, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>133</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Oportunidad Departamento Dúplex, A Pasos Metro U. Católica</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/MLC-1565539671-oportunidad-departamento-duplex-a-pasos-metro-u-catolica-_JM#position=50&amp;search_layout=map&amp;type=item&amp;tracking_id=737aaf9e-0b90-4ed0-8c36-5781fea73d02</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>310</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>28 m² útiles · 1 dormitorio</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Diag. Paraguay, Santiago, Santa Isabel, Santiago</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>https://www.portalinmobiliario.com/arriendo/departamento/_DisplayType_M_OrderId_PRICE_PriceRange_1CLP-450000_NoIndex_True_item*location_lat:-33.444928523279955*-33.43672781799603,lon:-70.64727335426328*-70.63064365837094</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
         </is>
       </c>
     </row>
